--- a/biology/Zoologie/Ischnura_pumilio/Ischnura_pumilio.xlsx
+++ b/biology/Zoologie/Ischnura_pumilio/Ischnura_pumilio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnura pumilio, l'agrion nain ou ischnure naine, est une espèce d'insectes odonates. C'est une demoiselle de la famille des Coenagrionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnura pumilio fréquente les mares temporaires (dont les points d'eau oligotrophes ou acides), les sources ou encore les fossés.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles immatures, d'un orange vif, sont facilement repérables.
 Les mâles quant à eux arborent la tache caudale typique des Ischnura, mais elle se décale sur le segment S9.
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Europe et en Asie mineure. Elle s'étend notamment jusque vers la Mongolie.
 </t>
@@ -606,7 +624,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations, bien que souvent localement abondantes, sont parfois fugaces et disparaissent au fur et à mesure que la végétation évolue.
 Ainsi, des populations peuvent facilement cesser après quelques années d'installation et "réapparaître" sur de nouveaux sites.
@@ -639,7 +659,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dijkstra, Klaas-Douwe Benediktus; illustrations: R. Lewington; traduction et adaptation française: Philippe Jourde, Guide des libellules de France et d'Europe, Delachaux et Niestlé, Paris 2007,  (ISBN 978-2-603-01639-8). Réimpression 2011, 320 p.
 Sur les autres projets Wikimedia :
